--- a/labels/RALP Sim Data.xlsx
+++ b/labels/RALP Sim Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xingming/Documents/OneDrive - Southern Methodist University/SMU-Study/S3/new_surgey_video/labels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\razer\OneDrive - Southern Methodist University\SMU-Study\S3\surgery-video-analysis\labels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="11_BF5FBDE0D6640B42C826547A7679B60CEB02213E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3083AEA1-3A1D-4FD7-84A6-C4BD6741F4F9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Duration Eval'!$A$1:$U$115</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="4">'Duration Eval'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3816,13 +3816,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="11" width="15.83203125" customWidth="1"/>
-    <col min="12" max="12" width="19.5" customWidth="1"/>
+    <col min="7" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>4</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>8</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>9</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>12</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>13</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>14</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>15</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>16</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>17</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>18</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>19</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>20</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -6359,7 +6359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q23" s="17">
         <f>AVERAGE(Q2:Q21)</f>
         <v>3.85</v>
@@ -6453,7 +6453,7 @@
         <v>4.0555555555555554</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="Q24" s="9">
         <f>_xlfn.STDEV.S(Q2:Q21)</f>
         <v>0.74515982037059503</v>
@@ -6547,7 +6547,7 @@
         <v>0.99836467592948797</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="Q26" t="s">
         <v>101</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="Q27" s="9">
         <f>AVERAGE(Q23:Y23)</f>
         <v>3.494444444444444</v>
@@ -6572,7 +6572,7 @@
         <v>4.0175925925925924</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="Q28">
         <f>_xlfn.STDEV.S(Q23:Y23)</f>
         <v>0.42971243614513105</v>
@@ -6603,13 +6603,13 @@
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>73</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>0.57735026918962473</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>3.0550504633038935</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>4</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>2.8867513459481255</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>3.2145502536643189</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>1.7320508075688772</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>0.57735026918962573</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>9</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>1.7320508075688772</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>3.5118845842842457</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>2.0816659994661335</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>12</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>3.2145502536643189</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>13</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>4.0414518843273797</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>14</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>0.57735026918962473</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>15</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>0.57735026918962573</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>16</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>1.154700538379251</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>17</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>2.0816659994661335</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>18</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>1.7320508075688772</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>19</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>20</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>2.8284271247461903</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>80</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>1</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>3</v>
       </c>
@@ -7831,12 +7831,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>4</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>4</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>4</v>
       </c>
@@ -7932,12 +7932,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>5</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>7</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>7</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <f>A44+1</f>
         <v>8</v>
@@ -8258,7 +8258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" ref="A49:A50" si="4">A45+1</f>
         <v>8</v>
@@ -8291,7 +8291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -8324,7 +8324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>A48+1</f>
         <v>9</v>
@@ -8357,7 +8357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" ref="A53:A54" si="5">A49+1</f>
         <v>9</v>
@@ -8390,7 +8390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -8423,7 +8423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <f>A52+1</f>
         <v>10</v>
@@ -8456,7 +8456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" ref="A57:A58" si="6">A53+1</f>
         <v>10</v>
@@ -8489,7 +8489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="6"/>
         <v>10</v>
@@ -8522,7 +8522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <f>A56+1</f>
         <v>11</v>
@@ -8555,7 +8555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" ref="A61:A62" si="7">A57+1</f>
         <v>11</v>
@@ -8588,7 +8588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="7"/>
         <v>11</v>
@@ -8621,7 +8621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <f>A60+1</f>
         <v>12</v>
@@ -8654,7 +8654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" ref="A65:A66" si="8">A61+1</f>
         <v>12</v>
@@ -8687,7 +8687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="8"/>
         <v>12</v>
@@ -8720,7 +8720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <f>A64+1</f>
         <v>13</v>
@@ -8753,7 +8753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" ref="A69:A70" si="9">A65+1</f>
         <v>13</v>
@@ -8786,7 +8786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="9"/>
         <v>13</v>
@@ -8819,7 +8819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <f>A68+1</f>
         <v>14</v>
@@ -8852,7 +8852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" ref="A73:A74" si="10">A69+1</f>
         <v>14</v>
@@ -8885,7 +8885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="10"/>
         <v>14</v>
@@ -8918,7 +8918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <f>A72+1</f>
         <v>15</v>
@@ -8951,7 +8951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" ref="A77:A78" si="11">A73+1</f>
         <v>15</v>
@@ -8984,7 +8984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="11"/>
         <v>15</v>
@@ -9017,7 +9017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <f>A76+1</f>
         <v>16</v>
@@ -9050,7 +9050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" ref="A81:A82" si="12">A77+1</f>
         <v>16</v>
@@ -9083,7 +9083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="12"/>
         <v>16</v>
@@ -9116,7 +9116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <f>A80+1</f>
         <v>17</v>
@@ -9149,7 +9149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" ref="A85:A86" si="13">A81+1</f>
         <v>17</v>
@@ -9182,7 +9182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="13"/>
         <v>17</v>
@@ -9215,7 +9215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <f>A84+1</f>
         <v>18</v>
@@ -9248,7 +9248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" ref="A89:A90" si="14">A85+1</f>
         <v>18</v>
@@ -9281,7 +9281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="14"/>
         <v>18</v>
@@ -9314,7 +9314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>19</v>
       </c>
@@ -9346,7 +9346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>19</v>
       </c>
@@ -9378,12 +9378,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>20</v>
       </c>
@@ -9415,7 +9415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>20</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>20</v>
       </c>
@@ -9466,9 +9466,9 @@
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>15</v>
       </c>
@@ -9572,7 +9572,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>20</v>
       </c>
@@ -9622,7 +9622,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>4</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>12</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>18</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>13</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>19</v>
       </c>
@@ -9996,7 +9996,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -10158,7 +10158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -10320,7 +10320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -10374,7 +10374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -10482,7 +10482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>9</v>
       </c>
@@ -10536,7 +10536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q23" t="s">
         <v>94</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>89</v>
       </c>
@@ -10607,7 +10607,7 @@
         <v>1.1785113019775794E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>90</v>
       </c>
@@ -10672,7 +10672,7 @@
         <v>2.6299556396765835</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>91</v>
       </c>
@@ -10737,7 +10737,7 @@
         <v>1.7320508075688772</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>92</v>
       </c>
@@ -10802,7 +10802,7 @@
         <v>2.0548046676563256</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>93</v>
       </c>
@@ -10840,7 +10840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>109</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>89</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>13.166666666666668</v>
       </c>
     </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>90</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>11.083333333333334</v>
       </c>
     </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>91</v>
       </c>
@@ -10929,7 +10929,7 @@
         <v>9.8888888888888875</v>
       </c>
     </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>92</v>
       </c>
@@ -10970,21 +10970,21 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -11034,7 +11034,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>3</v>
       </c>
@@ -11060,7 +11060,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>10</v>
       </c>
@@ -11086,7 +11086,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -11119,7 +11119,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>12</v>
       </c>
@@ -11147,7 +11147,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>17</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>19</v>
       </c>
@@ -11234,7 +11234,7 @@
       </c>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>21</v>
       </c>
@@ -11263,7 +11263,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>22</v>
       </c>
@@ -11289,7 +11289,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>27</v>
       </c>
@@ -11316,7 +11316,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>29</v>
       </c>
@@ -11343,7 +11343,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>31</v>
       </c>
@@ -11371,7 +11371,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>33</v>
       </c>
@@ -11399,7 +11399,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="15"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>34</v>
       </c>
@@ -11427,7 +11427,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>36</v>
       </c>
@@ -11455,7 +11455,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="15"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>38</v>
       </c>
@@ -11484,7 +11484,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>41</v>
       </c>
@@ -11513,7 +11513,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="12"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>43</v>
       </c>
@@ -11539,7 +11539,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>44</v>
       </c>
@@ -11568,7 +11568,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -11603,7 +11603,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>50</v>
       </c>
@@ -11632,7 +11632,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>55</v>
       </c>
@@ -11661,7 +11661,7 @@
       <c r="M24" s="4"/>
       <c r="P24" s="4"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>57</v>
       </c>
@@ -11688,7 +11688,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -11723,7 +11723,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>61</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>63</v>
       </c>
@@ -11777,7 +11777,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>65</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>70</v>
       </c>
@@ -11830,7 +11830,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>71</v>
       </c>
@@ -11859,7 +11859,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>72</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>73</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -11945,7 +11945,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>75</v>
       </c>
@@ -11974,7 +11974,7 @@
       <c r="M35" s="4"/>
       <c r="P35" s="4"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>76</v>
       </c>
@@ -12001,7 +12001,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>77</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -12062,7 +12062,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>79</v>
       </c>
@@ -12086,7 +12086,7 @@
       </c>
       <c r="J39" s="21"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>81</v>
       </c>
@@ -12110,7 +12110,7 @@
       </c>
       <c r="J40" s="21"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>82</v>
       </c>
@@ -12136,7 +12136,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>84</v>
       </c>
@@ -12164,7 +12164,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>88</v>
       </c>
@@ -12190,7 +12190,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -12222,7 +12222,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>95</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>104</v>
       </c>
@@ -12276,7 +12276,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>107</v>
       </c>
@@ -12305,7 +12305,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>108</v>
       </c>
@@ -12332,7 +12332,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -12367,7 +12367,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>114</v>
       </c>
@@ -12394,7 +12394,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>116</v>
       </c>
@@ -12420,7 +12420,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>118</v>
       </c>
@@ -12449,7 +12449,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>121</v>
       </c>
@@ -12476,7 +12476,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>122</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>123</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>125</v>
       </c>
@@ -12555,7 +12555,7 @@
       </c>
       <c r="J56" s="21"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>126</v>
       </c>
@@ -12582,7 +12582,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -12615,7 +12615,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>131</v>
       </c>
@@ -12644,7 +12644,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>133</v>
       </c>
@@ -12671,7 +12671,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>137</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>140</v>
       </c>
@@ -12725,7 +12725,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>141</v>
       </c>
@@ -12752,7 +12752,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -12787,7 +12787,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>144</v>
       </c>
@@ -12813,7 +12813,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>146</v>
       </c>
@@ -12840,7 +12840,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -12873,7 +12873,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>156</v>
       </c>
@@ -12900,7 +12900,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>157</v>
       </c>
@@ -12927,7 +12927,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>158</v>
       </c>
@@ -12954,7 +12954,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -12986,7 +12986,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>165</v>
       </c>
@@ -13012,7 +13012,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>166</v>
       </c>
@@ -13039,7 +13039,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -13071,7 +13071,7 @@
         <v>0.20138888888888887</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>174</v>
       </c>
@@ -13100,7 +13100,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>175</v>
       </c>
@@ -13127,7 +13127,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -13159,7 +13159,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>179</v>
       </c>
@@ -13185,7 +13185,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>182</v>
       </c>
@@ -13214,7 +13214,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>184</v>
       </c>
@@ -13241,7 +13241,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -13273,7 +13273,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -13306,7 +13306,7 @@
         <v>0.21736111111111112</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>195</v>
       </c>
@@ -13335,7 +13335,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>201</v>
       </c>
@@ -13364,7 +13364,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>203</v>
       </c>
@@ -13391,7 +13391,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>205</v>
       </c>
@@ -13417,7 +13417,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
@@ -13450,7 +13450,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>208</v>
       </c>
@@ -13474,7 +13474,7 @@
       </c>
       <c r="J88" s="21"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>212</v>
       </c>
@@ -13501,7 +13501,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>216</v>
       </c>
@@ -13530,7 +13530,7 @@
       <c r="M90" s="4"/>
       <c r="P90" s="4"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>217</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>221</v>
       </c>
@@ -13583,7 +13583,7 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -13616,7 +13616,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>224</v>
       </c>
@@ -13643,7 +13643,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -13675,7 +13675,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -13707,7 +13707,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>227</v>
       </c>
@@ -13731,7 +13731,7 @@
       </c>
       <c r="J97" s="21"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>229</v>
       </c>
@@ -13759,7 +13759,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>235</v>
       </c>
@@ -13788,7 +13788,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -13818,7 +13818,7 @@
       </c>
       <c r="P100" s="4"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -13851,7 +13851,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>238</v>
       </c>
@@ -13879,7 +13879,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
@@ -13911,7 +13911,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>242</v>
       </c>
@@ -13938,7 +13938,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>243</v>
       </c>
@@ -13965,7 +13965,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>251</v>
       </c>
@@ -13991,7 +13991,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>252</v>
       </c>
@@ -14017,7 +14017,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -14049,7 +14049,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>256</v>
       </c>
@@ -14076,7 +14076,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
@@ -14108,7 +14108,7 @@
         <v>0.12013888888888889</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
@@ -14141,7 +14141,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>259</v>
       </c>
@@ -14170,7 +14170,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>263</v>
       </c>
@@ -14194,7 +14194,7 @@
       </c>
       <c r="J113" s="21"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -14229,7 +14229,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>271</v>
       </c>
@@ -14256,7 +14256,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>274</v>
       </c>
@@ -14282,7 +14282,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
@@ -14314,7 +14314,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
@@ -14346,7 +14346,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>278</v>
       </c>
@@ -14373,7 +14373,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>279</v>
       </c>
@@ -14401,7 +14401,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>280</v>
       </c>
@@ -14429,7 +14429,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>281</v>
       </c>
@@ -14455,7 +14455,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>282</v>
       </c>
@@ -14482,7 +14482,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>286</v>
       </c>
@@ -14544,7 +14544,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>290</v>
       </c>
@@ -14571,7 +14571,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>292</v>
       </c>
@@ -14595,7 +14595,7 @@
       </c>
       <c r="J127" s="21"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -14628,7 +14628,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>295</v>
       </c>
@@ -14655,7 +14655,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
@@ -14688,7 +14688,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>297</v>
       </c>
@@ -14715,7 +14715,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1</v>
       </c>
@@ -14750,7 +14750,7 @@
       <c r="M132" s="4"/>
       <c r="P132" s="4"/>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -14785,7 +14785,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>303</v>
       </c>
@@ -14811,7 +14811,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>305</v>
       </c>
@@ -14835,7 +14835,7 @@
       </c>
       <c r="J135" s="21"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>310</v>
       </c>
@@ -14861,7 +14861,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>311</v>
       </c>
@@ -14885,7 +14885,7 @@
       </c>
       <c r="J137" s="21"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>317</v>
       </c>
@@ -14909,7 +14909,7 @@
       </c>
       <c r="J138" s="21"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>318</v>
       </c>
@@ -14938,7 +14938,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>319</v>
       </c>
@@ -14965,7 +14965,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>324</v>
       </c>
@@ -14991,7 +14991,7 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>326</v>
       </c>
@@ -15018,7 +15018,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>327</v>
       </c>
@@ -15047,7 +15047,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>331</v>
       </c>
@@ -15074,7 +15074,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
@@ -15106,7 +15106,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>334</v>
       </c>
@@ -15135,7 +15135,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>335</v>
       </c>
@@ -15163,7 +15163,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>336</v>
       </c>
@@ -15187,7 +15187,7 @@
       </c>
       <c r="J148" s="21"/>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>343</v>
       </c>
@@ -15216,7 +15216,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1</v>
       </c>
@@ -15249,7 +15249,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1</v>
       </c>
@@ -15281,7 +15281,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>347</v>
       </c>
@@ -15308,7 +15308,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>348</v>
       </c>
@@ -15336,7 +15336,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>352</v>
       </c>
@@ -15363,7 +15363,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>355</v>
       </c>
@@ -15392,7 +15392,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>356</v>
       </c>
@@ -15420,7 +15420,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1</v>
       </c>
@@ -15450,7 +15450,7 @@
       </c>
       <c r="P157" s="4"/>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1</v>
       </c>
@@ -15485,7 +15485,7 @@
       <c r="M158" s="4"/>
       <c r="P158" s="4"/>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1</v>
       </c>
@@ -15518,7 +15518,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>369</v>
       </c>
@@ -15544,7 +15544,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>374</v>
       </c>
@@ -15571,7 +15571,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>376</v>
       </c>
@@ -15599,7 +15599,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>377</v>
       </c>
@@ -15626,7 +15626,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1</v>
       </c>
@@ -15658,7 +15658,7 @@
         <v>0.18194444444444444</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B165">
         <v>380</v>
       </c>
@@ -15684,7 +15684,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>381</v>
       </c>
@@ -15713,7 +15713,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B167">
         <v>382</v>
       </c>
@@ -15742,7 +15742,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B168">
         <v>383</v>
       </c>
@@ -15768,7 +15768,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B170">
         <v>389</v>
       </c>
@@ -15826,7 +15826,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B171">
         <v>393</v>
       </c>
@@ -15853,7 +15853,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B172">
         <v>394</v>
       </c>
@@ -15879,7 +15879,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B173">
         <v>395</v>
       </c>
@@ -15906,7 +15906,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B174">
         <v>397</v>
       </c>
@@ -15935,7 +15935,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B175">
         <v>398</v>
       </c>
@@ -15961,7 +15961,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1</v>
       </c>
@@ -15993,7 +15993,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B177">
         <v>402</v>
       </c>
@@ -16022,7 +16022,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B178">
         <v>403</v>
       </c>
@@ -16049,7 +16049,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B179">
         <v>405</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1</v>
       </c>
@@ -16109,7 +16109,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B181">
         <v>416</v>
       </c>
@@ -16138,7 +16138,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1</v>
       </c>
@@ -16170,7 +16170,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B183">
         <v>419</v>
       </c>
@@ -16197,7 +16197,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B184">
         <v>421</v>
       </c>
@@ -16223,7 +16223,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1</v>
       </c>
@@ -16255,7 +16255,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1</v>
       </c>
@@ -16285,7 +16285,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B187">
         <v>429</v>
       </c>
@@ -16311,7 +16311,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B188">
         <v>431</v>
       </c>
@@ -16337,7 +16337,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B189">
         <v>435</v>
       </c>
@@ -16361,7 +16361,7 @@
       </c>
       <c r="J189" s="21"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1</v>
       </c>
@@ -16390,7 +16390,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B191">
         <v>437</v>
       </c>
@@ -16416,7 +16416,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1</v>
       </c>
@@ -16451,7 +16451,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1</v>
       </c>
@@ -16485,7 +16485,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B194">
         <v>443</v>
       </c>
@@ -16509,7 +16509,7 @@
       </c>
       <c r="J194" s="21"/>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B195">
         <v>444</v>
       </c>
@@ -16533,7 +16533,7 @@
       </c>
       <c r="J195" s="21"/>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B196">
         <v>446</v>
       </c>
@@ -16559,7 +16559,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B197">
         <v>447</v>
       </c>
@@ -16588,7 +16588,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B198">
         <v>454</v>
       </c>
@@ -16612,7 +16612,7 @@
       </c>
       <c r="J198" s="21"/>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1</v>
       </c>
@@ -16647,7 +16647,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1</v>
       </c>
@@ -16677,7 +16677,7 @@
       </c>
       <c r="P200" s="4"/>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
@@ -16712,7 +16712,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1</v>
       </c>
@@ -16748,7 +16748,7 @@
       </c>
       <c r="Q202" s="4"/>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B203">
         <v>475</v>
       </c>
@@ -16773,7 +16773,7 @@
       <c r="J203" s="21"/>
       <c r="Q203" s="15"/>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B204">
         <v>482</v>
       </c>
@@ -16800,7 +16800,7 @@
       </c>
       <c r="Q204" s="4"/>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B205">
         <v>483</v>
       </c>
@@ -16825,7 +16825,7 @@
       <c r="J205" s="21"/>
       <c r="Q205" s="15"/>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B206">
         <v>484</v>
       </c>
@@ -16853,7 +16853,7 @@
       </c>
       <c r="Q206" s="4"/>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1</v>
       </c>
@@ -16886,7 +16886,7 @@
       </c>
       <c r="Q207" s="12"/>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B208">
         <v>487</v>
       </c>
@@ -16912,7 +16912,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B209">
         <v>488</v>
       </c>
@@ -16939,7 +16939,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B210">
         <v>491</v>
       </c>
@@ -16968,7 +16968,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B211">
         <v>494</v>
       </c>
@@ -16996,7 +16996,7 @@
       <c r="M211" s="4"/>
       <c r="P211" s="4"/>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B212">
         <v>495</v>
       </c>
@@ -17020,7 +17020,7 @@
       </c>
       <c r="J212" s="21"/>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B213">
         <v>496</v>
       </c>
@@ -17046,7 +17046,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1</v>
       </c>
@@ -17079,7 +17079,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B215">
         <v>499</v>
       </c>
@@ -17106,7 +17106,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B216">
         <v>500</v>
       </c>
@@ -17134,7 +17134,7 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B217">
         <v>502</v>
       </c>
@@ -17161,7 +17161,7 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1</v>
       </c>
@@ -17193,7 +17193,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B219">
         <v>504</v>
       </c>
@@ -17222,7 +17222,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B220">
         <v>505</v>
       </c>
@@ -17250,7 +17250,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1</v>
       </c>
@@ -17284,7 +17284,7 @@
       <c r="M221" s="4"/>
       <c r="P221" s="4"/>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B222">
         <v>509</v>
       </c>
@@ -17310,7 +17310,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B223">
         <v>520</v>
       </c>
@@ -17337,7 +17337,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1</v>
       </c>
@@ -17370,7 +17370,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B225">
         <v>528</v>
       </c>
@@ -17397,7 +17397,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1</v>
       </c>
@@ -17429,7 +17429,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1</v>
       </c>
@@ -17461,7 +17461,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B228">
         <v>533</v>
       </c>
@@ -17487,7 +17487,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B229">
         <v>534</v>
       </c>
@@ -17513,7 +17513,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1</v>
       </c>
@@ -17546,7 +17546,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1</v>
       </c>
@@ -17579,7 +17579,7 @@
       </c>
       <c r="P231" s="4"/>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1</v>
       </c>
@@ -17612,7 +17612,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1</v>
       </c>
@@ -17645,7 +17645,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B234">
         <v>544</v>
       </c>
@@ -17673,7 +17673,7 @@
       <c r="M234" s="4"/>
       <c r="P234" s="4"/>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B235">
         <v>549</v>
       </c>
@@ -17700,7 +17700,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B236">
         <v>550</v>
       </c>
@@ -17727,7 +17727,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B237">
         <v>551</v>
       </c>
@@ -17754,7 +17754,7 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B238">
         <v>552</v>
       </c>
@@ -17782,7 +17782,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B239">
         <v>554</v>
       </c>
@@ -17808,7 +17808,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B240">
         <v>556</v>
       </c>
@@ -17837,7 +17837,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1</v>
       </c>
@@ -17867,7 +17867,7 @@
       </c>
       <c r="P241" s="4"/>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B242">
         <v>558</v>
       </c>
@@ -17894,7 +17894,7 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1</v>
       </c>
@@ -17927,7 +17927,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B244">
         <v>560</v>
       </c>
@@ -17954,7 +17954,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1</v>
       </c>
@@ -17987,7 +17987,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B246">
         <v>565</v>
       </c>
@@ -18013,7 +18013,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B247">
         <v>566</v>
       </c>
@@ -18037,7 +18037,7 @@
       </c>
       <c r="J247" s="21"/>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B248">
         <v>567</v>
       </c>
@@ -18061,7 +18061,7 @@
       </c>
       <c r="J248" s="21"/>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B249">
         <v>570</v>
       </c>
@@ -18088,7 +18088,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B250">
         <v>574</v>
       </c>
@@ -18114,7 +18114,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B251">
         <v>576</v>
       </c>
@@ -18143,7 +18143,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1</v>
       </c>
@@ -18172,7 +18172,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B253">
         <v>579</v>
       </c>
@@ -18199,7 +18199,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B254">
         <v>587</v>
       </c>
@@ -18228,7 +18228,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B255">
         <v>589</v>
       </c>
@@ -18254,7 +18254,7 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B256">
         <v>590</v>
       </c>
@@ -18281,7 +18281,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B257">
         <v>594</v>
       </c>
@@ -18308,7 +18308,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B258">
         <v>598</v>
       </c>
@@ -18337,7 +18337,7 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1</v>
       </c>
@@ -18370,7 +18370,7 @@
       </c>
       <c r="P259" s="4"/>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B260">
         <v>607</v>
       </c>
@@ -18397,7 +18397,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B261">
         <v>608</v>
       </c>
@@ -18423,7 +18423,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B262">
         <v>609</v>
       </c>
@@ -18450,7 +18450,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B263">
         <v>614</v>
       </c>
@@ -18479,7 +18479,7 @@
       <c r="M263" s="4"/>
       <c r="P263" s="4"/>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1</v>
       </c>
@@ -18513,7 +18513,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B265">
         <v>616</v>
       </c>
@@ -18542,7 +18542,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B266">
         <v>617</v>
       </c>
@@ -18569,7 +18569,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B267">
         <v>618</v>
       </c>
@@ -18596,7 +18596,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B268">
         <v>624</v>
       </c>
@@ -18622,7 +18622,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B269">
         <v>626</v>
       </c>
@@ -18649,7 +18649,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B270">
         <v>627</v>
       </c>
@@ -18675,7 +18675,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B271">
         <v>628</v>
       </c>
@@ -18701,7 +18701,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B272">
         <v>631</v>
       </c>
@@ -18728,7 +18728,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1</v>
       </c>
@@ -18758,7 +18758,7 @@
       </c>
       <c r="P273" s="4"/>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B274">
         <v>633</v>
       </c>
@@ -18787,7 +18787,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B275">
         <v>636</v>
       </c>
@@ -18811,7 +18811,7 @@
       </c>
       <c r="J275" s="21"/>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B276">
         <v>637</v>
       </c>
@@ -18835,7 +18835,7 @@
       </c>
       <c r="J276" s="21"/>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B277">
         <v>639</v>
       </c>
@@ -18864,7 +18864,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1</v>
       </c>
@@ -18896,7 +18896,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B279">
         <v>646</v>
       </c>
@@ -18923,7 +18923,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B280">
         <v>648</v>
       </c>
@@ -18952,7 +18952,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B281">
         <v>658</v>
       </c>
@@ -18981,7 +18981,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B282">
         <v>664</v>
       </c>
@@ -19008,7 +19008,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B283">
         <v>665</v>
       </c>
@@ -19037,7 +19037,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B284">
         <v>667</v>
       </c>
@@ -19066,7 +19066,7 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B285">
         <v>668</v>
       </c>
@@ -19094,7 +19094,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B286">
         <v>669</v>
       </c>
@@ -19120,7 +19120,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B287">
         <v>672</v>
       </c>
@@ -19144,7 +19144,7 @@
       </c>
       <c r="J287" s="21"/>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B288">
         <v>674</v>
       </c>
@@ -19170,7 +19170,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B289">
         <v>676</v>
       </c>
@@ -19196,7 +19196,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B290">
         <v>680</v>
       </c>
@@ -19222,7 +19222,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B291">
         <v>682</v>
       </c>
@@ -19248,7 +19248,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B292">
         <v>683</v>
       </c>
@@ -19277,7 +19277,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B293">
         <v>684</v>
       </c>
@@ -19304,7 +19304,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B294">
         <v>685</v>
       </c>
@@ -19330,7 +19330,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1</v>
       </c>
@@ -19359,7 +19359,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B296">
         <v>691</v>
       </c>
@@ -19385,7 +19385,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B297">
         <v>692</v>
       </c>
@@ -19412,7 +19412,7 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1</v>
       </c>
@@ -19446,7 +19446,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1</v>
       </c>
@@ -19479,7 +19479,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B300">
         <v>695</v>
       </c>
@@ -19505,7 +19505,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B301">
         <v>696</v>
       </c>
@@ -19531,7 +19531,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1</v>
       </c>
@@ -19565,7 +19565,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B303">
         <v>702</v>
       </c>
@@ -19592,7 +19592,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B304">
         <v>704</v>
       </c>
@@ -19618,7 +19618,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B305">
         <v>706</v>
       </c>
@@ -19645,7 +19645,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B306">
         <v>714</v>
       </c>
@@ -19672,7 +19672,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1</v>
       </c>
@@ -19701,7 +19701,7 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1</v>
       </c>
@@ -19736,7 +19736,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1</v>
       </c>
@@ -19768,7 +19768,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B310">
         <v>719</v>
       </c>
@@ -19797,7 +19797,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B311">
         <v>720</v>
       </c>
@@ -19825,7 +19825,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B312">
         <v>721</v>
       </c>
@@ -19854,7 +19854,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B313">
         <v>722</v>
       </c>
@@ -19883,7 +19883,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B314">
         <v>726</v>
       </c>
@@ -19910,7 +19910,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B315">
         <v>727</v>
       </c>
@@ -19934,7 +19934,7 @@
       </c>
       <c r="J315" s="21"/>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1</v>
       </c>
@@ -19964,7 +19964,7 @@
       </c>
       <c r="P316" s="4"/>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B317">
         <v>732</v>
       </c>
@@ -19988,7 +19988,7 @@
       </c>
       <c r="J317" s="21"/>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1</v>
       </c>
@@ -20022,7 +20022,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1</v>
       </c>
@@ -20052,7 +20052,7 @@
       </c>
       <c r="P319" s="4"/>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B320">
         <v>737</v>
       </c>
@@ -20078,7 +20078,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1</v>
       </c>
@@ -20111,7 +20111,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1</v>
       </c>
@@ -20143,7 +20143,7 @@
         <v>0.15347222222222223</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1</v>
       </c>
@@ -20176,7 +20176,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1</v>
       </c>
@@ -20208,7 +20208,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B325">
         <v>744</v>
       </c>
@@ -20234,7 +20234,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B326">
         <v>749</v>
       </c>
@@ -20263,7 +20263,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B327">
         <v>750</v>
       </c>
@@ -20292,7 +20292,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1</v>
       </c>
@@ -20325,7 +20325,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1</v>
       </c>
@@ -20358,7 +20358,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B330">
         <v>757</v>
       </c>
@@ -20385,7 +20385,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B331">
         <v>758</v>
       </c>
@@ -20409,7 +20409,7 @@
       </c>
       <c r="J331" s="21"/>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B332">
         <v>760</v>
       </c>
@@ -20438,7 +20438,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1</v>
       </c>
@@ -20470,7 +20470,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B334">
         <v>762</v>
       </c>
@@ -20498,7 +20498,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B335">
         <v>764</v>
       </c>
@@ -20525,7 +20525,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B336">
         <v>769</v>
       </c>
@@ -20551,7 +20551,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B337">
         <v>771</v>
       </c>
@@ -20577,7 +20577,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B338">
         <v>774</v>
       </c>
@@ -20601,7 +20601,7 @@
       </c>
       <c r="J338" s="21"/>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B339">
         <v>783</v>
       </c>
@@ -20625,7 +20625,7 @@
       </c>
       <c r="J339" s="21"/>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B340">
         <v>784</v>
       </c>
@@ -20652,7 +20652,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B341">
         <v>787</v>
       </c>
@@ -20681,7 +20681,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B342">
         <v>788</v>
       </c>
@@ -20708,7 +20708,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B343">
         <v>792</v>
       </c>
@@ -20735,7 +20735,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B344">
         <v>797</v>
       </c>
@@ -20762,7 +20762,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B345">
         <v>800</v>
       </c>
@@ -20786,7 +20786,7 @@
       </c>
       <c r="J345" s="21"/>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B346">
         <v>801</v>
       </c>
@@ -20812,7 +20812,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B347">
         <v>804</v>
       </c>
@@ -20839,7 +20839,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B348">
         <v>806</v>
       </c>
@@ -20866,7 +20866,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1</v>
       </c>
@@ -20898,7 +20898,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B350">
         <v>817</v>
       </c>
@@ -20924,7 +20924,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1</v>
       </c>
@@ -20954,7 +20954,7 @@
       </c>
       <c r="P351" s="4"/>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1</v>
       </c>
@@ -20986,7 +20986,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B353">
         <v>821</v>
       </c>
@@ -21012,7 +21012,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B354">
         <v>823</v>
       </c>
@@ -21039,7 +21039,7 @@
       </c>
       <c r="Q354" s="4"/>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1</v>
       </c>
@@ -21075,7 +21075,7 @@
       </c>
       <c r="Q355" s="1"/>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B356">
         <v>825</v>
       </c>
@@ -21103,7 +21103,7 @@
       </c>
       <c r="Q356" s="1"/>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B357">
         <v>838</v>
       </c>
@@ -21130,7 +21130,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B358">
         <v>846</v>
       </c>
@@ -21156,7 +21156,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1</v>
       </c>
@@ -21191,7 +21191,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1</v>
       </c>
@@ -21220,7 +21220,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B361">
         <v>850</v>
       </c>
@@ -21247,7 +21247,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B362">
         <v>851</v>
       </c>
@@ -21274,7 +21274,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B363">
         <v>856</v>
       </c>
@@ -21300,7 +21300,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1</v>
       </c>
@@ -21333,7 +21333,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B365">
         <v>867</v>
       </c>
@@ -21359,7 +21359,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B366">
         <v>869</v>
       </c>
@@ -21386,7 +21386,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B367">
         <v>872</v>
       </c>
@@ -21413,7 +21413,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1</v>
       </c>
@@ -21445,7 +21445,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>1</v>
       </c>
@@ -21474,7 +21474,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B370">
         <v>877</v>
       </c>
@@ -21500,7 +21500,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B371">
         <v>878</v>
       </c>
@@ -21526,7 +21526,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B372">
         <v>880</v>
       </c>
@@ -21553,7 +21553,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1</v>
       </c>
@@ -21588,7 +21588,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B374">
         <v>891</v>
       </c>
@@ -21615,7 +21615,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B375">
         <v>893</v>
       </c>
@@ -21641,7 +21641,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>1</v>
       </c>
@@ -21674,7 +21674,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B377">
         <v>897</v>
       </c>
@@ -21700,7 +21700,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B378">
         <v>901</v>
       </c>
@@ -21726,7 +21726,7 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B379">
         <v>904</v>
       </c>
@@ -21755,7 +21755,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1</v>
       </c>
@@ -21787,7 +21787,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B381">
         <v>914</v>
       </c>
@@ -21814,7 +21814,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B382">
         <v>915</v>
       </c>
@@ -21840,7 +21840,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B383">
         <v>916</v>
       </c>
@@ -21867,7 +21867,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B384">
         <v>918</v>
       </c>
@@ -21894,7 +21894,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B385">
         <v>919</v>
       </c>
@@ -21920,7 +21920,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>1</v>
       </c>
@@ -21953,7 +21953,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B387">
         <v>922</v>
       </c>
@@ -21980,7 +21980,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>1</v>
       </c>
@@ -22012,7 +22012,7 @@
         <v>6.3194444444444442E-2</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1</v>
       </c>
@@ -22045,7 +22045,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B390">
         <v>930</v>
       </c>
@@ -22069,7 +22069,7 @@
       </c>
       <c r="J390" s="21"/>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B391">
         <v>937</v>
       </c>
@@ -22096,7 +22096,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B392">
         <v>939</v>
       </c>
@@ -22125,7 +22125,7 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B393">
         <v>941</v>
       </c>
@@ -22151,7 +22151,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>1</v>
       </c>
@@ -22184,7 +22184,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B395">
         <v>943</v>
       </c>
@@ -22210,7 +22210,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>1</v>
       </c>
@@ -22239,7 +22239,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B397">
         <v>945</v>
       </c>
@@ -22267,7 +22267,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1</v>
       </c>
@@ -22302,7 +22302,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B399">
         <v>949</v>
       </c>
@@ -22328,7 +22328,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B400">
         <v>950</v>
       </c>
@@ -22355,7 +22355,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B401">
         <v>951</v>
       </c>
@@ -22382,7 +22382,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>1</v>
       </c>
@@ -22415,7 +22415,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>1</v>
       </c>
@@ -22447,7 +22447,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B404">
         <v>959</v>
       </c>
@@ -22476,7 +22476,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B405">
         <v>960</v>
       </c>
@@ -22505,7 +22505,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>1</v>
       </c>
@@ -22537,7 +22537,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B407">
         <v>967</v>
       </c>
@@ -22566,7 +22566,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B408">
         <v>968</v>
       </c>
@@ -22592,7 +22592,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B409">
         <v>970</v>
       </c>
@@ -22619,7 +22619,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>1</v>
       </c>
@@ -22649,7 +22649,7 @@
       </c>
       <c r="P410" s="4"/>
     </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B411">
         <v>972</v>
       </c>
@@ -22676,7 +22676,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B412">
         <v>974</v>
       </c>
@@ -22700,7 +22700,7 @@
       </c>
       <c r="J412" s="21"/>
     </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B413">
         <v>976</v>
       </c>
@@ -22729,7 +22729,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="414" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B414">
         <v>979</v>
       </c>
@@ -22756,7 +22756,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="415" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B415">
         <v>984</v>
       </c>
@@ -22783,7 +22783,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="416" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B416">
         <v>990</v>
       </c>
@@ -22809,7 +22809,7 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="417" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B417">
         <v>992</v>
       </c>
@@ -22838,7 +22838,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="418" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>1</v>
       </c>
@@ -22868,7 +22868,7 @@
       </c>
       <c r="P418" s="4"/>
     </row>
-    <row r="419" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B419">
         <v>998</v>
       </c>
@@ -22894,7 +22894,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="420" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B420">
         <v>999</v>
       </c>
@@ -22920,7 +22920,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A426">
         <f>COUNTIF(A3:A420,1)</f>
         <v>113</v>
@@ -22951,23 +22951,23 @@
       <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -23038,7 +23038,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -23112,7 +23112,7 @@
         <v>0.47140452079103168</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>1</v>
       </c>
@@ -23170,7 +23170,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>1</v>
       </c>
@@ -23230,7 +23230,7 @@
       <c r="Z4" s="38"/>
       <c r="AA4" s="38"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>1</v>
       </c>
@@ -23289,7 +23289,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>1</v>
       </c>
@@ -23347,7 +23347,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>1</v>
       </c>
@@ -23405,7 +23405,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
@@ -23480,7 +23480,7 @@
         <v>2.4944382578492941</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>1</v>
       </c>
@@ -23539,7 +23539,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>1</v>
       </c>
@@ -23599,7 +23599,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>1</v>
       </c>
@@ -23659,7 +23659,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>1</v>
       </c>
@@ -23718,7 +23718,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>1</v>
       </c>
@@ -23777,7 +23777,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
@@ -23852,7 +23852,7 @@
         <v>2.6246692913372702</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>1</v>
       </c>
@@ -23912,7 +23912,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>1</v>
       </c>
@@ -23972,7 +23972,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>1</v>
       </c>
@@ -24032,7 +24032,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>1</v>
       </c>
@@ -24092,7 +24092,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>1</v>
       </c>
@@ -24151,7 +24151,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
@@ -24226,7 +24226,7 @@
         <v>0.81649658092772603</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>1</v>
       </c>
@@ -24285,7 +24285,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>1</v>
       </c>
@@ -24344,7 +24344,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>1</v>
       </c>
@@ -24403,7 +24403,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>1</v>
       </c>
@@ -24462,7 +24462,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>1</v>
       </c>
@@ -24521,7 +24521,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
@@ -24596,7 +24596,7 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <v>1</v>
       </c>
@@ -24655,7 +24655,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>1</v>
       </c>
@@ -24714,7 +24714,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
         <v>1</v>
       </c>
@@ -24773,7 +24773,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
         <v>1</v>
       </c>
@@ -24832,7 +24832,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>1</v>
       </c>
@@ -24891,7 +24891,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
@@ -24966,7 +24966,7 @@
         <v>2.8674417556808756</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="25">
         <v>1</v>
       </c>
@@ -25025,7 +25025,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="25">
         <v>1</v>
       </c>
@@ -25084,7 +25084,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="25">
         <v>1</v>
       </c>
@@ -25143,7 +25143,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="25">
         <v>1</v>
       </c>
@@ -25202,7 +25202,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>1</v>
       </c>
@@ -25261,7 +25261,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -25336,7 +25336,7 @@
         <v>1.699673171197595</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="25">
         <v>1</v>
       </c>
@@ -25395,7 +25395,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="25">
         <v>1</v>
       </c>
@@ -25454,7 +25454,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="25">
         <v>1</v>
       </c>
@@ -25513,7 +25513,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="25">
         <v>1</v>
       </c>
@@ -25572,7 +25572,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>1</v>
       </c>
@@ -25631,7 +25631,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
@@ -25706,7 +25706,7 @@
         <v>0.47140452079103168</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="25">
         <v>1</v>
       </c>
@@ -25765,7 +25765,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="25">
         <v>1</v>
       </c>
@@ -25824,7 +25824,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="25">
         <v>1</v>
       </c>
@@ -25883,7 +25883,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="25">
         <v>1</v>
       </c>
@@ -25942,7 +25942,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>1</v>
       </c>
@@ -26001,7 +26001,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
@@ -26076,7 +26076,7 @@
         <v>0.94280904158206336</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="25">
         <v>1</v>
       </c>
@@ -26135,7 +26135,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="25">
         <v>1</v>
       </c>
@@ -26194,7 +26194,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="25">
         <v>1</v>
       </c>
@@ -26253,7 +26253,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="25">
         <v>1</v>
       </c>
@@ -26312,7 +26312,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>1</v>
       </c>
@@ -26371,7 +26371,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="B56" s="24"/>
       <c r="C56" s="24"/>
@@ -26446,7 +26446,7 @@
         <v>1.699673171197595</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="25">
         <v>1</v>
       </c>
@@ -26505,7 +26505,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="25">
         <v>1</v>
       </c>
@@ -26564,7 +26564,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="25">
         <v>1</v>
       </c>
@@ -26623,7 +26623,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="25">
         <v>1</v>
       </c>
@@ -26682,7 +26682,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>1</v>
       </c>
@@ -26741,7 +26741,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="24"/>
       <c r="C62" s="24"/>
@@ -26816,7 +26816,7 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="25">
         <v>1</v>
       </c>
@@ -26875,7 +26875,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="25">
         <v>1</v>
       </c>
@@ -26934,7 +26934,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="25">
         <v>1</v>
       </c>
@@ -26993,7 +26993,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="25">
         <v>1</v>
       </c>
@@ -27052,7 +27052,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>1</v>
       </c>
@@ -27111,7 +27111,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
       <c r="B68" s="24"/>
       <c r="C68" s="24"/>
@@ -27186,7 +27186,7 @@
         <v>3.2998316455372216</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="25">
         <v>1</v>
       </c>
@@ -27245,7 +27245,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="25">
         <v>1</v>
       </c>
@@ -27304,7 +27304,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="25">
         <v>1</v>
       </c>
@@ -27363,7 +27363,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="25">
         <v>1</v>
       </c>
@@ -27422,7 +27422,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>1</v>
       </c>
@@ -27481,7 +27481,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="23"/>
       <c r="B74" s="24"/>
       <c r="C74" s="24"/>
@@ -27556,7 +27556,7 @@
         <v>5.1854497287013483</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="25">
         <v>1</v>
       </c>
@@ -27615,7 +27615,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="25">
         <v>1</v>
       </c>
@@ -27674,7 +27674,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="25">
         <v>1</v>
       </c>
@@ -27733,7 +27733,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="25">
         <v>1</v>
       </c>
@@ -27792,7 +27792,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>1</v>
       </c>
@@ -27851,7 +27851,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="24"/>
       <c r="C80" s="24"/>
@@ -27926,7 +27926,7 @@
         <v>2.3570226039551585</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="25">
         <v>1</v>
       </c>
@@ -27986,7 +27986,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="25">
         <v>1</v>
       </c>
@@ -28046,7 +28046,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="25">
         <v>1</v>
       </c>
@@ -28106,7 +28106,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="25">
         <v>1</v>
       </c>
@@ -28166,7 +28166,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>1</v>
       </c>
@@ -28226,7 +28226,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="23"/>
       <c r="B86" s="24"/>
       <c r="C86" s="24"/>
@@ -28301,7 +28301,7 @@
         <v>0.47140452079103168</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" s="25">
         <v>1</v>
       </c>
@@ -28360,7 +28360,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" s="25">
         <v>1</v>
       </c>
@@ -28419,7 +28419,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" s="25">
         <v>1</v>
       </c>
@@ -28478,7 +28478,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" s="25">
         <v>1</v>
       </c>
@@ -28537,7 +28537,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <v>1</v>
       </c>
@@ -28596,7 +28596,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" s="23"/>
       <c r="B92" s="24"/>
       <c r="C92" s="24"/>
@@ -28671,7 +28671,7 @@
         <v>2.6246692913372702</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="25">
         <v>1</v>
       </c>
@@ -28730,7 +28730,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" s="25">
         <v>1</v>
       </c>
@@ -28789,7 +28789,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" s="25">
         <v>1</v>
       </c>
@@ -28848,7 +28848,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" s="25">
         <v>1</v>
       </c>
@@ -28907,7 +28907,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <v>1</v>
       </c>
@@ -28966,7 +28966,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="23"/>
       <c r="B98" s="24"/>
       <c r="C98" s="24"/>
@@ -29041,7 +29041,7 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="25">
         <v>1</v>
       </c>
@@ -29100,7 +29100,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="25">
         <v>1</v>
       </c>
@@ -29159,7 +29159,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="25">
         <v>1</v>
       </c>
@@ -29218,7 +29218,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="25">
         <v>1</v>
       </c>
@@ -29277,7 +29277,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <v>1</v>
       </c>
@@ -29336,7 +29336,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="23"/>
       <c r="B104" s="24"/>
       <c r="C104" s="24"/>
@@ -29411,7 +29411,7 @@
         <v>0.47140452079103168</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="25">
         <v>1</v>
       </c>
@@ -29470,7 +29470,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="25">
         <v>1</v>
       </c>
@@ -29529,7 +29529,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="25">
         <v>1</v>
       </c>
@@ -29588,7 +29588,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="25">
         <v>1</v>
       </c>
@@ -29647,7 +29647,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <v>1</v>
       </c>
@@ -29706,7 +29706,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="23"/>
       <c r="B110" s="24"/>
       <c r="C110" s="24"/>
@@ -29781,7 +29781,7 @@
         <v>5.8878405775518976</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="25">
         <v>1</v>
       </c>
@@ -29840,7 +29840,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="25">
         <v>1</v>
       </c>
@@ -29899,7 +29899,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" s="25">
         <v>1</v>
       </c>
@@ -29958,7 +29958,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" s="25">
         <v>1</v>
       </c>
@@ -30017,7 +30017,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <v>1</v>
       </c>
@@ -30076,12 +30076,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
         <v>135</v>
       </c>
@@ -30101,7 +30101,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>89</v>
       </c>
@@ -30114,7 +30114,7 @@
         <v>6.3333333333333313</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>90</v>
       </c>
@@ -30127,7 +30127,7 @@
         <v>5.1451163468110392</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>91</v>
       </c>
@@ -30140,7 +30140,7 @@
         <v>2.4393887111222412</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>92</v>
       </c>
@@ -30153,17 +30153,17 @@
         <v>2.7438820836342233</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
         <v>135</v>
       </c>
@@ -30183,7 +30183,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>89</v>
       </c>
@@ -30196,7 +30196,7 @@
         <v>3.1666666666666634</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>90</v>
       </c>
@@ -30209,7 +30209,7 @@
         <v>3.3778280332518729</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>91</v>
       </c>
@@ -30222,7 +30222,7 @@
         <v>1.0886621079036385</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>92</v>
       </c>
@@ -30235,7 +30235,7 @@
         <v>1.2927146286443605</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>93</v>
       </c>

--- a/labels/RALP Sim Data.xlsx
+++ b/labels/RALP Sim Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\razer\OneDrive - Southern Methodist University\SMU-Study\S3\surgery-video-analysis\labels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xqu/OneDrive - Southern Methodist University/SMU-Study/S3/surgery-video-analysis/labels/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="11_BF5FBDE0D6640B42C826547A7679B60CEB02213E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3083AEA1-3A1D-4FD7-84A6-C4BD6741F4F9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Duration Eval'!$A$1:$U$115</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="4">'Duration Eval'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3814,15 +3814,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="11" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="7" max="11" width="15.83203125" customWidth="1"/>
+    <col min="12" max="12" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3941,7 +3943,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4064,7 +4066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4184,7 +4186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>4</v>
       </c>
@@ -4304,7 +4306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4427,7 +4429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4550,7 +4552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -4673,7 +4675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>8</v>
       </c>
@@ -4796,7 +4798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>9</v>
       </c>
@@ -4919,7 +4921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -5042,7 +5044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -5165,7 +5167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>12</v>
       </c>
@@ -5288,7 +5290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>13</v>
       </c>
@@ -5411,7 +5413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>14</v>
       </c>
@@ -5534,7 +5536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>15</v>
       </c>
@@ -5657,7 +5659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>16</v>
       </c>
@@ -5780,7 +5782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>17</v>
       </c>
@@ -5903,7 +5905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>18</v>
       </c>
@@ -6026,7 +6028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>19</v>
       </c>
@@ -6149,7 +6151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>20</v>
       </c>
@@ -6272,7 +6274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -6359,7 +6361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Q23" s="17">
         <f>AVERAGE(Q2:Q21)</f>
         <v>3.85</v>
@@ -6453,7 +6455,7 @@
         <v>4.0555555555555554</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="Q24" s="9">
         <f>_xlfn.STDEV.S(Q2:Q21)</f>
         <v>0.74515982037059503</v>
@@ -6547,7 +6549,7 @@
         <v>0.99836467592948797</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="Q26" t="s">
         <v>101</v>
       </c>
@@ -6558,7 +6560,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="Q27" s="9">
         <f>AVERAGE(Q23:Y23)</f>
         <v>3.494444444444444</v>
@@ -6572,7 +6574,7 @@
         <v>4.0175925925925924</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="Q28">
         <f>_xlfn.STDEV.S(Q23:Y23)</f>
         <v>0.42971243614513105</v>
@@ -6603,13 +6605,13 @@
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>73</v>
       </c>
@@ -6641,7 +6643,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6692,7 +6694,7 @@
         <v>0.57735026918962473</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -6743,7 +6745,7 @@
         <v>3.0550504633038935</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>4</v>
       </c>
@@ -6794,7 +6796,7 @@
         <v>2.8867513459481255</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -6845,7 +6847,7 @@
         <v>3.2145502536643189</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -6896,7 +6898,7 @@
         <v>1.7320508075688772</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -6947,7 +6949,7 @@
         <v>0.57735026918962573</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -6998,7 +7000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>9</v>
       </c>
@@ -7049,7 +7051,7 @@
         <v>1.7320508075688772</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -7100,7 +7102,7 @@
         <v>3.5118845842842457</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -7151,7 +7153,7 @@
         <v>2.0816659994661335</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>12</v>
       </c>
@@ -7202,7 +7204,7 @@
         <v>3.2145502536643189</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>13</v>
       </c>
@@ -7253,7 +7255,7 @@
         <v>4.0414518843273797</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>14</v>
       </c>
@@ -7304,7 +7306,7 @@
         <v>0.57735026918962473</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>15</v>
       </c>
@@ -7355,7 +7357,7 @@
         <v>0.57735026918962573</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>16</v>
       </c>
@@ -7406,7 +7408,7 @@
         <v>1.154700538379251</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>17</v>
       </c>
@@ -7457,7 +7459,7 @@
         <v>2.0816659994661335</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>18</v>
       </c>
@@ -7508,7 +7510,7 @@
         <v>1.7320508075688772</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>19</v>
       </c>
@@ -7559,7 +7561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>20</v>
       </c>
@@ -7610,7 +7612,7 @@
         <v>2.8284271247461903</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>80</v>
       </c>
@@ -7639,7 +7641,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -7671,7 +7673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -7703,7 +7705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>1</v>
       </c>
@@ -7735,7 +7737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -7767,7 +7769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -7799,7 +7801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>3</v>
       </c>
@@ -7831,12 +7833,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>4</v>
       </c>
@@ -7868,7 +7870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>4</v>
       </c>
@@ -7900,7 +7902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>4</v>
       </c>
@@ -7932,12 +7934,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>5</v>
       </c>
@@ -7969,7 +7971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>5</v>
       </c>
@@ -8001,7 +8003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>5</v>
       </c>
@@ -8033,7 +8035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>6</v>
       </c>
@@ -8065,7 +8067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>6</v>
       </c>
@@ -8097,7 +8099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>6</v>
       </c>
@@ -8129,7 +8131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>7</v>
       </c>
@@ -8161,7 +8163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>7</v>
       </c>
@@ -8193,7 +8195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>7</v>
       </c>
@@ -8225,7 +8227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <f>A44+1</f>
         <v>8</v>
@@ -8258,7 +8260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" ref="A49:A50" si="4">A45+1</f>
         <v>8</v>
@@ -8291,7 +8293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -8324,7 +8326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <f>A48+1</f>
         <v>9</v>
@@ -8357,7 +8359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" ref="A53:A54" si="5">A49+1</f>
         <v>9</v>
@@ -8390,7 +8392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -8423,7 +8425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <f>A52+1</f>
         <v>10</v>
@@ -8456,7 +8458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" ref="A57:A58" si="6">A53+1</f>
         <v>10</v>
@@ -8489,7 +8491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="6"/>
         <v>10</v>
@@ -8522,7 +8524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <f>A56+1</f>
         <v>11</v>
@@ -8555,7 +8557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" ref="A61:A62" si="7">A57+1</f>
         <v>11</v>
@@ -8588,7 +8590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="7"/>
         <v>11</v>
@@ -8621,7 +8623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <f>A60+1</f>
         <v>12</v>
@@ -8654,7 +8656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" ref="A65:A66" si="8">A61+1</f>
         <v>12</v>
@@ -8687,7 +8689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="8"/>
         <v>12</v>
@@ -8720,7 +8722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <f>A64+1</f>
         <v>13</v>
@@ -8753,7 +8755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" ref="A69:A70" si="9">A65+1</f>
         <v>13</v>
@@ -8786,7 +8788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="9"/>
         <v>13</v>
@@ -8819,7 +8821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <f>A68+1</f>
         <v>14</v>
@@ -8852,7 +8854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" ref="A73:A74" si="10">A69+1</f>
         <v>14</v>
@@ -8885,7 +8887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="10"/>
         <v>14</v>
@@ -8918,7 +8920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <f>A72+1</f>
         <v>15</v>
@@ -8951,7 +8953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" ref="A77:A78" si="11">A73+1</f>
         <v>15</v>
@@ -8984,7 +8986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="11"/>
         <v>15</v>
@@ -9017,7 +9019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <f>A76+1</f>
         <v>16</v>
@@ -9050,7 +9052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" ref="A81:A82" si="12">A77+1</f>
         <v>16</v>
@@ -9083,7 +9085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" si="12"/>
         <v>16</v>
@@ -9116,7 +9118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <f>A80+1</f>
         <v>17</v>
@@ -9149,7 +9151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" ref="A85:A86" si="13">A81+1</f>
         <v>17</v>
@@ -9182,7 +9184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <f t="shared" si="13"/>
         <v>17</v>
@@ -9215,7 +9217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <f>A84+1</f>
         <v>18</v>
@@ -9248,7 +9250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" ref="A89:A90" si="14">A85+1</f>
         <v>18</v>
@@ -9281,7 +9283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="14"/>
         <v>18</v>
@@ -9314,7 +9316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>19</v>
       </c>
@@ -9346,7 +9348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>19</v>
       </c>
@@ -9378,12 +9380,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>20</v>
       </c>
@@ -9415,7 +9417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>20</v>
       </c>
@@ -9447,7 +9449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>20</v>
       </c>
@@ -9466,9 +9468,9 @@
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9518,7 +9520,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>15</v>
       </c>
@@ -9572,7 +9574,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>20</v>
       </c>
@@ -9622,7 +9624,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>4</v>
       </c>
@@ -9676,7 +9678,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>12</v>
       </c>
@@ -9730,7 +9732,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>18</v>
       </c>
@@ -9784,7 +9786,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -9838,7 +9840,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -9892,7 +9894,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>13</v>
       </c>
@@ -9946,7 +9948,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>19</v>
       </c>
@@ -9996,7 +9998,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -10050,7 +10052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -10104,7 +10106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -10158,7 +10160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
@@ -10212,7 +10214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
@@ -10266,7 +10268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -10320,7 +10322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -10374,7 +10376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -10428,7 +10430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -10482,7 +10484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>9</v>
       </c>
@@ -10536,7 +10538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="Q23" t="s">
         <v>94</v>
       </c>
@@ -10547,7 +10549,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>89</v>
       </c>
@@ -10607,7 +10609,7 @@
         <v>1.1785113019775794E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>90</v>
       </c>
@@ -10672,7 +10674,7 @@
         <v>2.6299556396765835</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>91</v>
       </c>
@@ -10737,7 +10739,7 @@
         <v>1.7320508075688772</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>92</v>
       </c>
@@ -10802,7 +10804,7 @@
         <v>2.0548046676563256</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>93</v>
       </c>
@@ -10840,7 +10842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
         <v>109</v>
       </c>
@@ -10860,7 +10862,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>89</v>
       </c>
@@ -10883,7 +10885,7 @@
         <v>13.166666666666668</v>
       </c>
     </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
         <v>90</v>
       </c>
@@ -10906,7 +10908,7 @@
         <v>11.083333333333334</v>
       </c>
     </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
         <v>91</v>
       </c>
@@ -10929,7 +10931,7 @@
         <v>9.8888888888888875</v>
       </c>
     </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
         <v>92</v>
       </c>
@@ -10970,21 +10972,21 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -11034,7 +11036,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>3</v>
       </c>
@@ -11060,7 +11062,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>10</v>
       </c>
@@ -11086,7 +11088,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -11119,7 +11121,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>12</v>
       </c>
@@ -11147,7 +11149,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -11179,7 +11181,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>17</v>
       </c>
@@ -11206,7 +11208,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>19</v>
       </c>
@@ -11234,7 +11236,7 @@
       </c>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>21</v>
       </c>
@@ -11263,7 +11265,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>22</v>
       </c>
@@ -11289,7 +11291,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>27</v>
       </c>
@@ -11316,7 +11318,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>29</v>
       </c>
@@ -11343,7 +11345,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>31</v>
       </c>
@@ -11371,7 +11373,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>33</v>
       </c>
@@ -11399,7 +11401,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="15"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>34</v>
       </c>
@@ -11427,7 +11429,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>36</v>
       </c>
@@ -11455,7 +11457,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="15"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>38</v>
       </c>
@@ -11484,7 +11486,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>41</v>
       </c>
@@ -11513,7 +11515,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="12"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>43</v>
       </c>
@@ -11539,7 +11541,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>44</v>
       </c>
@@ -11568,7 +11570,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -11603,7 +11605,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>50</v>
       </c>
@@ -11632,7 +11634,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>55</v>
       </c>
@@ -11661,7 +11663,7 @@
       <c r="M24" s="4"/>
       <c r="P24" s="4"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>57</v>
       </c>
@@ -11688,7 +11690,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -11723,7 +11725,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>61</v>
       </c>
@@ -11750,7 +11752,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>63</v>
       </c>
@@ -11777,7 +11779,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>65</v>
       </c>
@@ -11804,7 +11806,7 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>70</v>
       </c>
@@ -11830,7 +11832,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>71</v>
       </c>
@@ -11859,7 +11861,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>72</v>
       </c>
@@ -11886,7 +11888,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>73</v>
       </c>
@@ -11913,7 +11915,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -11945,7 +11947,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>75</v>
       </c>
@@ -11974,7 +11976,7 @@
       <c r="M35" s="4"/>
       <c r="P35" s="4"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>76</v>
       </c>
@@ -12001,7 +12003,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>77</v>
       </c>
@@ -12027,7 +12029,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -12062,7 +12064,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>79</v>
       </c>
@@ -12086,7 +12088,7 @@
       </c>
       <c r="J39" s="21"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>81</v>
       </c>
@@ -12110,7 +12112,7 @@
       </c>
       <c r="J40" s="21"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>82</v>
       </c>
@@ -12136,7 +12138,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>84</v>
       </c>
@@ -12164,7 +12166,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>88</v>
       </c>
@@ -12190,7 +12192,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -12222,7 +12224,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>95</v>
       </c>
@@ -12249,7 +12251,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>104</v>
       </c>
@@ -12276,7 +12278,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>107</v>
       </c>
@@ -12305,7 +12307,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>108</v>
       </c>
@@ -12332,7 +12334,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1</v>
       </c>
@@ -12367,7 +12369,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>114</v>
       </c>
@@ -12394,7 +12396,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>116</v>
       </c>
@@ -12420,7 +12422,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>118</v>
       </c>
@@ -12449,7 +12451,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>121</v>
       </c>
@@ -12476,7 +12478,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>122</v>
       </c>
@@ -12503,7 +12505,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>123</v>
       </c>
@@ -12531,7 +12533,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>125</v>
       </c>
@@ -12555,7 +12557,7 @@
       </c>
       <c r="J56" s="21"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>126</v>
       </c>
@@ -12582,7 +12584,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1</v>
       </c>
@@ -12615,7 +12617,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>131</v>
       </c>
@@ -12644,7 +12646,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>133</v>
       </c>
@@ -12671,7 +12673,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>137</v>
       </c>
@@ -12698,7 +12700,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>140</v>
       </c>
@@ -12725,7 +12727,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>141</v>
       </c>
@@ -12752,7 +12754,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1</v>
       </c>
@@ -12787,7 +12789,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>144</v>
       </c>
@@ -12813,7 +12815,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>146</v>
       </c>
@@ -12840,7 +12842,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1</v>
       </c>
@@ -12873,7 +12875,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>156</v>
       </c>
@@ -12900,7 +12902,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>157</v>
       </c>
@@ -12927,7 +12929,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>158</v>
       </c>
@@ -12954,7 +12956,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1</v>
       </c>
@@ -12986,7 +12988,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>165</v>
       </c>
@@ -13012,7 +13014,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>166</v>
       </c>
@@ -13039,7 +13041,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1</v>
       </c>
@@ -13071,7 +13073,7 @@
         <v>0.20138888888888887</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>174</v>
       </c>
@@ -13100,7 +13102,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>175</v>
       </c>
@@ -13127,7 +13129,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1</v>
       </c>
@@ -13159,7 +13161,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>179</v>
       </c>
@@ -13185,7 +13187,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>182</v>
       </c>
@@ -13214,7 +13216,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>184</v>
       </c>
@@ -13241,7 +13243,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1</v>
       </c>
@@ -13273,7 +13275,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1</v>
       </c>
@@ -13306,7 +13308,7 @@
         <v>0.21736111111111112</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>195</v>
       </c>
@@ -13335,7 +13337,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>201</v>
       </c>
@@ -13364,7 +13366,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>203</v>
       </c>
@@ -13391,7 +13393,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>205</v>
       </c>
@@ -13417,7 +13419,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1</v>
       </c>
@@ -13450,7 +13452,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>208</v>
       </c>
@@ -13474,7 +13476,7 @@
       </c>
       <c r="J88" s="21"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>212</v>
       </c>
@@ -13501,7 +13503,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B90">
         <v>216</v>
       </c>
@@ -13530,7 +13532,7 @@
       <c r="M90" s="4"/>
       <c r="P90" s="4"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>217</v>
       </c>
@@ -13556,7 +13558,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>221</v>
       </c>
@@ -13583,7 +13585,7 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1</v>
       </c>
@@ -13616,7 +13618,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>224</v>
       </c>
@@ -13643,7 +13645,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1</v>
       </c>
@@ -13675,7 +13677,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1</v>
       </c>
@@ -13707,7 +13709,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B97">
         <v>227</v>
       </c>
@@ -13731,7 +13733,7 @@
       </c>
       <c r="J97" s="21"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98">
         <v>229</v>
       </c>
@@ -13759,7 +13761,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B99">
         <v>235</v>
       </c>
@@ -13788,7 +13790,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1</v>
       </c>
@@ -13818,7 +13820,7 @@
       </c>
       <c r="P100" s="4"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1</v>
       </c>
@@ -13851,7 +13853,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B102">
         <v>238</v>
       </c>
@@ -13879,7 +13881,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1</v>
       </c>
@@ -13911,7 +13913,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B104">
         <v>242</v>
       </c>
@@ -13938,7 +13940,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B105">
         <v>243</v>
       </c>
@@ -13965,7 +13967,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B106">
         <v>251</v>
       </c>
@@ -13991,7 +13993,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B107">
         <v>252</v>
       </c>
@@ -14017,7 +14019,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1</v>
       </c>
@@ -14049,7 +14051,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B109">
         <v>256</v>
       </c>
@@ -14076,7 +14078,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1</v>
       </c>
@@ -14108,7 +14110,7 @@
         <v>0.12013888888888889</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1</v>
       </c>
@@ -14141,7 +14143,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B112">
         <v>259</v>
       </c>
@@ -14170,7 +14172,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B113">
         <v>263</v>
       </c>
@@ -14194,7 +14196,7 @@
       </c>
       <c r="J113" s="21"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1</v>
       </c>
@@ -14229,7 +14231,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B115">
         <v>271</v>
       </c>
@@ -14256,7 +14258,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B116">
         <v>274</v>
       </c>
@@ -14282,7 +14284,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1</v>
       </c>
@@ -14314,7 +14316,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1</v>
       </c>
@@ -14346,7 +14348,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B119">
         <v>278</v>
       </c>
@@ -14373,7 +14375,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B120">
         <v>279</v>
       </c>
@@ -14401,7 +14403,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B121">
         <v>280</v>
       </c>
@@ -14429,7 +14431,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B122">
         <v>281</v>
       </c>
@@ -14455,7 +14457,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B123">
         <v>282</v>
       </c>
@@ -14482,7 +14484,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1</v>
       </c>
@@ -14515,7 +14517,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B125">
         <v>286</v>
       </c>
@@ -14544,7 +14546,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B126">
         <v>290</v>
       </c>
@@ -14571,7 +14573,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B127">
         <v>292</v>
       </c>
@@ -14595,7 +14597,7 @@
       </c>
       <c r="J127" s="21"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1</v>
       </c>
@@ -14628,7 +14630,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B129">
         <v>295</v>
       </c>
@@ -14655,7 +14657,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1</v>
       </c>
@@ -14688,7 +14690,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B131">
         <v>297</v>
       </c>
@@ -14715,7 +14717,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1</v>
       </c>
@@ -14750,7 +14752,7 @@
       <c r="M132" s="4"/>
       <c r="P132" s="4"/>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1</v>
       </c>
@@ -14785,7 +14787,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B134">
         <v>303</v>
       </c>
@@ -14811,7 +14813,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B135">
         <v>305</v>
       </c>
@@ -14835,7 +14837,7 @@
       </c>
       <c r="J135" s="21"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B136">
         <v>310</v>
       </c>
@@ -14861,7 +14863,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B137">
         <v>311</v>
       </c>
@@ -14885,7 +14887,7 @@
       </c>
       <c r="J137" s="21"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B138">
         <v>317</v>
       </c>
@@ -14909,7 +14911,7 @@
       </c>
       <c r="J138" s="21"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B139">
         <v>318</v>
       </c>
@@ -14938,7 +14940,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B140">
         <v>319</v>
       </c>
@@ -14965,7 +14967,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B141">
         <v>324</v>
       </c>
@@ -14991,7 +14993,7 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B142">
         <v>326</v>
       </c>
@@ -15018,7 +15020,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B143">
         <v>327</v>
       </c>
@@ -15047,7 +15049,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B144">
         <v>331</v>
       </c>
@@ -15074,7 +15076,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1</v>
       </c>
@@ -15106,7 +15108,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B146">
         <v>334</v>
       </c>
@@ -15135,7 +15137,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B147">
         <v>335</v>
       </c>
@@ -15163,7 +15165,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B148">
         <v>336</v>
       </c>
@@ -15187,7 +15189,7 @@
       </c>
       <c r="J148" s="21"/>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B149">
         <v>343</v>
       </c>
@@ -15216,7 +15218,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1</v>
       </c>
@@ -15249,7 +15251,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1</v>
       </c>
@@ -15281,7 +15283,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B152">
         <v>347</v>
       </c>
@@ -15308,7 +15310,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B153">
         <v>348</v>
       </c>
@@ -15336,7 +15338,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B154">
         <v>352</v>
       </c>
@@ -15363,7 +15365,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B155">
         <v>355</v>
       </c>
@@ -15392,7 +15394,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B156">
         <v>356</v>
       </c>
@@ -15420,7 +15422,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>1</v>
       </c>
@@ -15450,7 +15452,7 @@
       </c>
       <c r="P157" s="4"/>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1</v>
       </c>
@@ -15485,7 +15487,7 @@
       <c r="M158" s="4"/>
       <c r="P158" s="4"/>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1</v>
       </c>
@@ -15518,7 +15520,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B160">
         <v>369</v>
       </c>
@@ -15544,7 +15546,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B161">
         <v>374</v>
       </c>
@@ -15571,7 +15573,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B162">
         <v>376</v>
       </c>
@@ -15599,7 +15601,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B163">
         <v>377</v>
       </c>
@@ -15626,7 +15628,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1</v>
       </c>
@@ -15658,7 +15660,7 @@
         <v>0.18194444444444444</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B165">
         <v>380</v>
       </c>
@@ -15684,7 +15686,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B166">
         <v>381</v>
       </c>
@@ -15713,7 +15715,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B167">
         <v>382</v>
       </c>
@@ -15742,7 +15744,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B168">
         <v>383</v>
       </c>
@@ -15768,7 +15770,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1</v>
       </c>
@@ -15800,7 +15802,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B170">
         <v>389</v>
       </c>
@@ -15826,7 +15828,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B171">
         <v>393</v>
       </c>
@@ -15853,7 +15855,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B172">
         <v>394</v>
       </c>
@@ -15879,7 +15881,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B173">
         <v>395</v>
       </c>
@@ -15906,7 +15908,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B174">
         <v>397</v>
       </c>
@@ -15935,7 +15937,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B175">
         <v>398</v>
       </c>
@@ -15961,7 +15963,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1</v>
       </c>
@@ -15993,7 +15995,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B177">
         <v>402</v>
       </c>
@@ -16022,7 +16024,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B178">
         <v>403</v>
       </c>
@@ -16049,7 +16051,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B179">
         <v>405</v>
       </c>
@@ -16076,7 +16078,7 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>1</v>
       </c>
@@ -16109,7 +16111,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B181">
         <v>416</v>
       </c>
@@ -16138,7 +16140,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1</v>
       </c>
@@ -16170,7 +16172,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B183">
         <v>419</v>
       </c>
@@ -16197,7 +16199,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B184">
         <v>421</v>
       </c>
@@ -16223,7 +16225,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>1</v>
       </c>
@@ -16255,7 +16257,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>1</v>
       </c>
@@ -16285,7 +16287,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B187">
         <v>429</v>
       </c>
@@ -16311,7 +16313,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B188">
         <v>431</v>
       </c>
@@ -16337,7 +16339,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B189">
         <v>435</v>
       </c>
@@ -16361,7 +16363,7 @@
       </c>
       <c r="J189" s="21"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>1</v>
       </c>
@@ -16390,7 +16392,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B191">
         <v>437</v>
       </c>
@@ -16416,7 +16418,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>1</v>
       </c>
@@ -16451,7 +16453,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>1</v>
       </c>
@@ -16485,7 +16487,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B194">
         <v>443</v>
       </c>
@@ -16509,7 +16511,7 @@
       </c>
       <c r="J194" s="21"/>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B195">
         <v>444</v>
       </c>
@@ -16533,7 +16535,7 @@
       </c>
       <c r="J195" s="21"/>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B196">
         <v>446</v>
       </c>
@@ -16559,7 +16561,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B197">
         <v>447</v>
       </c>
@@ -16588,7 +16590,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B198">
         <v>454</v>
       </c>
@@ -16612,7 +16614,7 @@
       </c>
       <c r="J198" s="21"/>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>1</v>
       </c>
@@ -16647,7 +16649,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1</v>
       </c>
@@ -16677,7 +16679,7 @@
       </c>
       <c r="P200" s="4"/>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>1</v>
       </c>
@@ -16712,7 +16714,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>1</v>
       </c>
@@ -16748,7 +16750,7 @@
       </c>
       <c r="Q202" s="4"/>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B203">
         <v>475</v>
       </c>
@@ -16773,7 +16775,7 @@
       <c r="J203" s="21"/>
       <c r="Q203" s="15"/>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B204">
         <v>482</v>
       </c>
@@ -16800,7 +16802,7 @@
       </c>
       <c r="Q204" s="4"/>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B205">
         <v>483</v>
       </c>
@@ -16825,7 +16827,7 @@
       <c r="J205" s="21"/>
       <c r="Q205" s="15"/>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B206">
         <v>484</v>
       </c>
@@ -16853,7 +16855,7 @@
       </c>
       <c r="Q206" s="4"/>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>1</v>
       </c>
@@ -16886,7 +16888,7 @@
       </c>
       <c r="Q207" s="12"/>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B208">
         <v>487</v>
       </c>
@@ -16912,7 +16914,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B209">
         <v>488</v>
       </c>
@@ -16939,7 +16941,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B210">
         <v>491</v>
       </c>
@@ -16968,7 +16970,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B211">
         <v>494</v>
       </c>
@@ -16996,7 +16998,7 @@
       <c r="M211" s="4"/>
       <c r="P211" s="4"/>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B212">
         <v>495</v>
       </c>
@@ -17020,7 +17022,7 @@
       </c>
       <c r="J212" s="21"/>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B213">
         <v>496</v>
       </c>
@@ -17046,7 +17048,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>1</v>
       </c>
@@ -17079,7 +17081,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B215">
         <v>499</v>
       </c>
@@ -17106,7 +17108,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B216">
         <v>500</v>
       </c>
@@ -17134,7 +17136,7 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B217">
         <v>502</v>
       </c>
@@ -17161,7 +17163,7 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>1</v>
       </c>
@@ -17193,7 +17195,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B219">
         <v>504</v>
       </c>
@@ -17222,7 +17224,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B220">
         <v>505</v>
       </c>
@@ -17250,7 +17252,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>1</v>
       </c>
@@ -17284,7 +17286,7 @@
       <c r="M221" s="4"/>
       <c r="P221" s="4"/>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B222">
         <v>509</v>
       </c>
@@ -17310,7 +17312,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B223">
         <v>520</v>
       </c>
@@ -17337,7 +17339,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>1</v>
       </c>
@@ -17370,7 +17372,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B225">
         <v>528</v>
       </c>
@@ -17397,7 +17399,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>1</v>
       </c>
@@ -17429,7 +17431,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>1</v>
       </c>
@@ -17461,7 +17463,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B228">
         <v>533</v>
       </c>
@@ -17487,7 +17489,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B229">
         <v>534</v>
       </c>
@@ -17513,7 +17515,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>1</v>
       </c>
@@ -17546,7 +17548,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>1</v>
       </c>
@@ -17579,7 +17581,7 @@
       </c>
       <c r="P231" s="4"/>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>1</v>
       </c>
@@ -17612,7 +17614,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>1</v>
       </c>
@@ -17645,7 +17647,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B234">
         <v>544</v>
       </c>
@@ -17673,7 +17675,7 @@
       <c r="M234" s="4"/>
       <c r="P234" s="4"/>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B235">
         <v>549</v>
       </c>
@@ -17700,7 +17702,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B236">
         <v>550</v>
       </c>
@@ -17727,7 +17729,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B237">
         <v>551</v>
       </c>
@@ -17754,7 +17756,7 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B238">
         <v>552</v>
       </c>
@@ -17782,7 +17784,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B239">
         <v>554</v>
       </c>
@@ -17808,7 +17810,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B240">
         <v>556</v>
       </c>
@@ -17837,7 +17839,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>1</v>
       </c>
@@ -17867,7 +17869,7 @@
       </c>
       <c r="P241" s="4"/>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B242">
         <v>558</v>
       </c>
@@ -17894,7 +17896,7 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>1</v>
       </c>
@@ -17927,7 +17929,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B244">
         <v>560</v>
       </c>
@@ -17954,7 +17956,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>1</v>
       </c>
@@ -17987,7 +17989,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B246">
         <v>565</v>
       </c>
@@ -18013,7 +18015,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B247">
         <v>566</v>
       </c>
@@ -18037,7 +18039,7 @@
       </c>
       <c r="J247" s="21"/>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B248">
         <v>567</v>
       </c>
@@ -18061,7 +18063,7 @@
       </c>
       <c r="J248" s="21"/>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B249">
         <v>570</v>
       </c>
@@ -18088,7 +18090,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B250">
         <v>574</v>
       </c>
@@ -18114,7 +18116,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B251">
         <v>576</v>
       </c>
@@ -18143,7 +18145,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>1</v>
       </c>
@@ -18172,7 +18174,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B253">
         <v>579</v>
       </c>
@@ -18199,7 +18201,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B254">
         <v>587</v>
       </c>
@@ -18228,7 +18230,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B255">
         <v>589</v>
       </c>
@@ -18254,7 +18256,7 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B256">
         <v>590</v>
       </c>
@@ -18281,7 +18283,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B257">
         <v>594</v>
       </c>
@@ -18308,7 +18310,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B258">
         <v>598</v>
       </c>
@@ -18337,7 +18339,7 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>1</v>
       </c>
@@ -18370,7 +18372,7 @@
       </c>
       <c r="P259" s="4"/>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B260">
         <v>607</v>
       </c>
@@ -18397,7 +18399,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B261">
         <v>608</v>
       </c>
@@ -18423,7 +18425,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B262">
         <v>609</v>
       </c>
@@ -18450,7 +18452,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B263">
         <v>614</v>
       </c>
@@ -18479,7 +18481,7 @@
       <c r="M263" s="4"/>
       <c r="P263" s="4"/>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>1</v>
       </c>
@@ -18513,7 +18515,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B265">
         <v>616</v>
       </c>
@@ -18542,7 +18544,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B266">
         <v>617</v>
       </c>
@@ -18569,7 +18571,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B267">
         <v>618</v>
       </c>
@@ -18596,7 +18598,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B268">
         <v>624</v>
       </c>
@@ -18622,7 +18624,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B269">
         <v>626</v>
       </c>
@@ -18649,7 +18651,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B270">
         <v>627</v>
       </c>
@@ -18675,7 +18677,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B271">
         <v>628</v>
       </c>
@@ -18701,7 +18703,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B272">
         <v>631</v>
       </c>
@@ -18728,7 +18730,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>1</v>
       </c>
@@ -18758,7 +18760,7 @@
       </c>
       <c r="P273" s="4"/>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B274">
         <v>633</v>
       </c>
@@ -18787,7 +18789,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B275">
         <v>636</v>
       </c>
@@ -18811,7 +18813,7 @@
       </c>
       <c r="J275" s="21"/>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B276">
         <v>637</v>
       </c>
@@ -18835,7 +18837,7 @@
       </c>
       <c r="J276" s="21"/>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B277">
         <v>639</v>
       </c>
@@ -18864,7 +18866,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>1</v>
       </c>
@@ -18896,7 +18898,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B279">
         <v>646</v>
       </c>
@@ -18923,7 +18925,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B280">
         <v>648</v>
       </c>
@@ -18952,7 +18954,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B281">
         <v>658</v>
       </c>
@@ -18981,7 +18983,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B282">
         <v>664</v>
       </c>
@@ -19008,7 +19010,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B283">
         <v>665</v>
       </c>
@@ -19037,7 +19039,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B284">
         <v>667</v>
       </c>
@@ -19066,7 +19068,7 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B285">
         <v>668</v>
       </c>
@@ -19094,7 +19096,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B286">
         <v>669</v>
       </c>
@@ -19120,7 +19122,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B287">
         <v>672</v>
       </c>
@@ -19144,7 +19146,7 @@
       </c>
       <c r="J287" s="21"/>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B288">
         <v>674</v>
       </c>
@@ -19170,7 +19172,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B289">
         <v>676</v>
       </c>
@@ -19196,7 +19198,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B290">
         <v>680</v>
       </c>
@@ -19222,7 +19224,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B291">
         <v>682</v>
       </c>
@@ -19248,7 +19250,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B292">
         <v>683</v>
       </c>
@@ -19277,7 +19279,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B293">
         <v>684</v>
       </c>
@@ -19304,7 +19306,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B294">
         <v>685</v>
       </c>
@@ -19330,7 +19332,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>1</v>
       </c>
@@ -19359,7 +19361,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B296">
         <v>691</v>
       </c>
@@ -19385,7 +19387,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B297">
         <v>692</v>
       </c>
@@ -19412,7 +19414,7 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>1</v>
       </c>
@@ -19446,7 +19448,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>1</v>
       </c>
@@ -19479,7 +19481,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B300">
         <v>695</v>
       </c>
@@ -19505,7 +19507,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B301">
         <v>696</v>
       </c>
@@ -19531,7 +19533,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>1</v>
       </c>
@@ -19565,7 +19567,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B303">
         <v>702</v>
       </c>
@@ -19592,7 +19594,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B304">
         <v>704</v>
       </c>
@@ -19618,7 +19620,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B305">
         <v>706</v>
       </c>
@@ -19645,7 +19647,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B306">
         <v>714</v>
       </c>
@@ -19672,7 +19674,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>1</v>
       </c>
@@ -19701,7 +19703,7 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>1</v>
       </c>
@@ -19736,7 +19738,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>1</v>
       </c>
@@ -19768,7 +19770,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B310">
         <v>719</v>
       </c>
@@ -19797,7 +19799,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B311">
         <v>720</v>
       </c>
@@ -19825,7 +19827,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B312">
         <v>721</v>
       </c>
@@ -19854,7 +19856,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B313">
         <v>722</v>
       </c>
@@ -19883,7 +19885,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B314">
         <v>726</v>
       </c>
@@ -19910,7 +19912,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B315">
         <v>727</v>
       </c>
@@ -19934,7 +19936,7 @@
       </c>
       <c r="J315" s="21"/>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>1</v>
       </c>
@@ -19964,7 +19966,7 @@
       </c>
       <c r="P316" s="4"/>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B317">
         <v>732</v>
       </c>
@@ -19988,7 +19990,7 @@
       </c>
       <c r="J317" s="21"/>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>1</v>
       </c>
@@ -20022,7 +20024,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>1</v>
       </c>
@@ -20052,7 +20054,7 @@
       </c>
       <c r="P319" s="4"/>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B320">
         <v>737</v>
       </c>
@@ -20078,7 +20080,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>1</v>
       </c>
@@ -20111,7 +20113,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>1</v>
       </c>
@@ -20143,7 +20145,7 @@
         <v>0.15347222222222223</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>1</v>
       </c>
@@ -20176,7 +20178,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>1</v>
       </c>
@@ -20208,7 +20210,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B325">
         <v>744</v>
       </c>
@@ -20234,7 +20236,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B326">
         <v>749</v>
       </c>
@@ -20263,7 +20265,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B327">
         <v>750</v>
       </c>
@@ -20292,7 +20294,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>1</v>
       </c>
@@ -20325,7 +20327,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>1</v>
       </c>
@@ -20358,7 +20360,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B330">
         <v>757</v>
       </c>
@@ -20385,7 +20387,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B331">
         <v>758</v>
       </c>
@@ -20409,7 +20411,7 @@
       </c>
       <c r="J331" s="21"/>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B332">
         <v>760</v>
       </c>
@@ -20438,7 +20440,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>1</v>
       </c>
@@ -20470,7 +20472,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B334">
         <v>762</v>
       </c>
@@ -20498,7 +20500,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B335">
         <v>764</v>
       </c>
@@ -20525,7 +20527,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B336">
         <v>769</v>
       </c>
@@ -20551,7 +20553,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B337">
         <v>771</v>
       </c>
@@ -20577,7 +20579,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B338">
         <v>774</v>
       </c>
@@ -20601,7 +20603,7 @@
       </c>
       <c r="J338" s="21"/>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B339">
         <v>783</v>
       </c>
@@ -20625,7 +20627,7 @@
       </c>
       <c r="J339" s="21"/>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B340">
         <v>784</v>
       </c>
@@ -20652,7 +20654,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B341">
         <v>787</v>
       </c>
@@ -20681,7 +20683,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B342">
         <v>788</v>
       </c>
@@ -20708,7 +20710,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B343">
         <v>792</v>
       </c>
@@ -20735,7 +20737,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B344">
         <v>797</v>
       </c>
@@ -20762,7 +20764,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B345">
         <v>800</v>
       </c>
@@ -20786,7 +20788,7 @@
       </c>
       <c r="J345" s="21"/>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B346">
         <v>801</v>
       </c>
@@ -20812,7 +20814,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B347">
         <v>804</v>
       </c>
@@ -20839,7 +20841,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B348">
         <v>806</v>
       </c>
@@ -20866,7 +20868,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>1</v>
       </c>
@@ -20898,7 +20900,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B350">
         <v>817</v>
       </c>
@@ -20924,7 +20926,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>1</v>
       </c>
@@ -20954,7 +20956,7 @@
       </c>
       <c r="P351" s="4"/>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>1</v>
       </c>
@@ -20986,7 +20988,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B353">
         <v>821</v>
       </c>
@@ -21012,7 +21014,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B354">
         <v>823</v>
       </c>
@@ -21039,7 +21041,7 @@
       </c>
       <c r="Q354" s="4"/>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>1</v>
       </c>
@@ -21075,7 +21077,7 @@
       </c>
       <c r="Q355" s="1"/>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B356">
         <v>825</v>
       </c>
@@ -21103,7 +21105,7 @@
       </c>
       <c r="Q356" s="1"/>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B357">
         <v>838</v>
       </c>
@@ -21130,7 +21132,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B358">
         <v>846</v>
       </c>
@@ -21156,7 +21158,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>1</v>
       </c>
@@ -21191,7 +21193,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>1</v>
       </c>
@@ -21220,7 +21222,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B361">
         <v>850</v>
       </c>
@@ -21247,7 +21249,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B362">
         <v>851</v>
       </c>
@@ -21274,7 +21276,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B363">
         <v>856</v>
       </c>
@@ -21300,7 +21302,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>1</v>
       </c>
@@ -21333,7 +21335,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B365">
         <v>867</v>
       </c>
@@ -21359,7 +21361,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B366">
         <v>869</v>
       </c>
@@ -21386,7 +21388,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B367">
         <v>872</v>
       </c>
@@ -21413,7 +21415,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>1</v>
       </c>
@@ -21445,7 +21447,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>1</v>
       </c>
@@ -21474,7 +21476,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B370">
         <v>877</v>
       </c>
@@ -21500,7 +21502,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B371">
         <v>878</v>
       </c>
@@ -21526,7 +21528,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B372">
         <v>880</v>
       </c>
@@ -21553,7 +21555,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>1</v>
       </c>
@@ -21588,7 +21590,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B374">
         <v>891</v>
       </c>
@@ -21615,7 +21617,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B375">
         <v>893</v>
       </c>
@@ -21641,7 +21643,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>1</v>
       </c>
@@ -21674,7 +21676,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B377">
         <v>897</v>
       </c>
@@ -21700,7 +21702,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B378">
         <v>901</v>
       </c>
@@ -21726,7 +21728,7 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B379">
         <v>904</v>
       </c>
@@ -21755,7 +21757,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>1</v>
       </c>
@@ -21787,7 +21789,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B381">
         <v>914</v>
       </c>
@@ -21814,7 +21816,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B382">
         <v>915</v>
       </c>
@@ -21840,7 +21842,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B383">
         <v>916</v>
       </c>
@@ -21867,7 +21869,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B384">
         <v>918</v>
       </c>
@@ -21894,7 +21896,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B385">
         <v>919</v>
       </c>
@@ -21920,7 +21922,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>1</v>
       </c>
@@ -21953,7 +21955,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B387">
         <v>922</v>
       </c>
@@ -21980,7 +21982,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>1</v>
       </c>
@@ -22012,7 +22014,7 @@
         <v>6.3194444444444442E-2</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>1</v>
       </c>
@@ -22045,7 +22047,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B390">
         <v>930</v>
       </c>
@@ -22069,7 +22071,7 @@
       </c>
       <c r="J390" s="21"/>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B391">
         <v>937</v>
       </c>
@@ -22096,7 +22098,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B392">
         <v>939</v>
       </c>
@@ -22125,7 +22127,7 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B393">
         <v>941</v>
       </c>
@@ -22151,7 +22153,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>1</v>
       </c>
@@ -22184,7 +22186,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B395">
         <v>943</v>
       </c>
@@ -22210,7 +22212,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>1</v>
       </c>
@@ -22239,7 +22241,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B397">
         <v>945</v>
       </c>
@@ -22267,7 +22269,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>1</v>
       </c>
@@ -22302,7 +22304,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B399">
         <v>949</v>
       </c>
@@ -22328,7 +22330,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B400">
         <v>950</v>
       </c>
@@ -22355,7 +22357,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B401">
         <v>951</v>
       </c>
@@ -22382,7 +22384,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>1</v>
       </c>
@@ -22415,7 +22417,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>1</v>
       </c>
@@ -22447,7 +22449,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B404">
         <v>959</v>
       </c>
@@ -22476,7 +22478,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B405">
         <v>960</v>
       </c>
@@ -22505,7 +22507,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>1</v>
       </c>
@@ -22537,7 +22539,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B407">
         <v>967</v>
       </c>
@@ -22566,7 +22568,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B408">
         <v>968</v>
       </c>
@@ -22592,7 +22594,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B409">
         <v>970</v>
       </c>
@@ -22619,7 +22621,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>1</v>
       </c>
@@ -22649,7 +22651,7 @@
       </c>
       <c r="P410" s="4"/>
     </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B411">
         <v>972</v>
       </c>
@@ -22676,7 +22678,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B412">
         <v>974</v>
       </c>
@@ -22700,7 +22702,7 @@
       </c>
       <c r="J412" s="21"/>
     </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B413">
         <v>976</v>
       </c>
@@ -22729,7 +22731,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="414" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B414">
         <v>979</v>
       </c>
@@ -22756,7 +22758,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="415" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B415">
         <v>984</v>
       </c>
@@ -22783,7 +22785,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="416" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B416">
         <v>990</v>
       </c>
@@ -22809,7 +22811,7 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="417" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B417">
         <v>992</v>
       </c>
@@ -22838,7 +22840,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="418" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>1</v>
       </c>
@@ -22868,7 +22870,7 @@
       </c>
       <c r="P418" s="4"/>
     </row>
-    <row r="419" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B419">
         <v>998</v>
       </c>
@@ -22894,7 +22896,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="420" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B420">
         <v>999</v>
       </c>
@@ -22920,7 +22922,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A426">
         <f>COUNTIF(A3:A420,1)</f>
         <v>113</v>
@@ -22951,23 +22953,23 @@
       <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -23038,7 +23040,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -23112,7 +23114,7 @@
         <v>0.47140452079103168</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="25">
         <v>1</v>
       </c>
@@ -23170,7 +23172,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="25">
         <v>1</v>
       </c>
@@ -23230,7 +23232,7 @@
       <c r="Z4" s="38"/>
       <c r="AA4" s="38"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="25">
         <v>1</v>
       </c>
@@ -23289,7 +23291,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="25">
         <v>1</v>
       </c>
@@ -23347,7 +23349,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="23">
         <v>1</v>
       </c>
@@ -23405,7 +23407,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="23"/>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
@@ -23480,7 +23482,7 @@
         <v>2.4944382578492941</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="25">
         <v>1</v>
       </c>
@@ -23539,7 +23541,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="25">
         <v>1</v>
       </c>
@@ -23599,7 +23601,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="25">
         <v>1</v>
       </c>
@@ -23659,7 +23661,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="25">
         <v>1</v>
       </c>
@@ -23718,7 +23720,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
         <v>1</v>
       </c>
@@ -23777,7 +23779,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="23"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
@@ -23852,7 +23854,7 @@
         <v>2.6246692913372702</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="25">
         <v>1</v>
       </c>
@@ -23912,7 +23914,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="25">
         <v>1</v>
       </c>
@@ -23972,7 +23974,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="25">
         <v>1</v>
       </c>
@@ -24032,7 +24034,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="25">
         <v>1</v>
       </c>
@@ -24092,7 +24094,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
         <v>1</v>
       </c>
@@ -24151,7 +24153,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
@@ -24226,7 +24228,7 @@
         <v>0.81649658092772603</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="25">
         <v>1</v>
       </c>
@@ -24285,7 +24287,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="25">
         <v>1</v>
       </c>
@@ -24344,7 +24346,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="25">
         <v>1</v>
       </c>
@@ -24403,7 +24405,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="25">
         <v>1</v>
       </c>
@@ -24462,7 +24464,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
         <v>1</v>
       </c>
@@ -24521,7 +24523,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="40"/>
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
@@ -24596,7 +24598,7 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="25">
         <v>1</v>
       </c>
@@ -24655,7 +24657,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="25">
         <v>1</v>
       </c>
@@ -24714,7 +24716,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="25">
         <v>1</v>
       </c>
@@ -24773,7 +24775,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="25">
         <v>1</v>
       </c>
@@ -24832,7 +24834,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="23">
         <v>1</v>
       </c>
@@ -24891,7 +24893,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
@@ -24966,7 +24968,7 @@
         <v>2.8674417556808756</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="25">
         <v>1</v>
       </c>
@@ -25025,7 +25027,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="25">
         <v>1</v>
       </c>
@@ -25084,7 +25086,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="25">
         <v>1</v>
       </c>
@@ -25143,7 +25145,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="25">
         <v>1</v>
       </c>
@@ -25202,7 +25204,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="23">
         <v>1</v>
       </c>
@@ -25261,7 +25263,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="23"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -25336,7 +25338,7 @@
         <v>1.699673171197595</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="25">
         <v>1</v>
       </c>
@@ -25395,7 +25397,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="25">
         <v>1</v>
       </c>
@@ -25454,7 +25456,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="25">
         <v>1</v>
       </c>
@@ -25513,7 +25515,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="25">
         <v>1</v>
       </c>
@@ -25572,7 +25574,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="23">
         <v>1</v>
       </c>
@@ -25631,7 +25633,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="23"/>
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
@@ -25706,7 +25708,7 @@
         <v>0.47140452079103168</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="25">
         <v>1</v>
       </c>
@@ -25765,7 +25767,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="25">
         <v>1</v>
       </c>
@@ -25824,7 +25826,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="25">
         <v>1</v>
       </c>
@@ -25883,7 +25885,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="25">
         <v>1</v>
       </c>
@@ -25942,7 +25944,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="23">
         <v>1</v>
       </c>
@@ -26001,7 +26003,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="23"/>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
@@ -26076,7 +26078,7 @@
         <v>0.94280904158206336</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="25">
         <v>1</v>
       </c>
@@ -26135,7 +26137,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="25">
         <v>1</v>
       </c>
@@ -26194,7 +26196,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="25">
         <v>1</v>
       </c>
@@ -26253,7 +26255,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="25">
         <v>1</v>
       </c>
@@ -26312,7 +26314,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="23">
         <v>1</v>
       </c>
@@ -26371,7 +26373,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="23"/>
       <c r="B56" s="24"/>
       <c r="C56" s="24"/>
@@ -26446,7 +26448,7 @@
         <v>1.699673171197595</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="25">
         <v>1</v>
       </c>
@@ -26505,7 +26507,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="25">
         <v>1</v>
       </c>
@@ -26564,7 +26566,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="25">
         <v>1</v>
       </c>
@@ -26623,7 +26625,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="25">
         <v>1</v>
       </c>
@@ -26682,7 +26684,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="23">
         <v>1</v>
       </c>
@@ -26741,7 +26743,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="23"/>
       <c r="B62" s="24"/>
       <c r="C62" s="24"/>
@@ -26816,7 +26818,7 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="25">
         <v>1</v>
       </c>
@@ -26875,7 +26877,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="25">
         <v>1</v>
       </c>
@@ -26934,7 +26936,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="25">
         <v>1</v>
       </c>
@@ -26993,7 +26995,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" s="25">
         <v>1</v>
       </c>
@@ -27052,7 +27054,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="23">
         <v>1</v>
       </c>
@@ -27111,7 +27113,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="23"/>
       <c r="B68" s="24"/>
       <c r="C68" s="24"/>
@@ -27186,7 +27188,7 @@
         <v>3.2998316455372216</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="25">
         <v>1</v>
       </c>
@@ -27245,7 +27247,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" s="25">
         <v>1</v>
       </c>
@@ -27304,7 +27306,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="25">
         <v>1</v>
       </c>
@@ -27363,7 +27365,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" s="25">
         <v>1</v>
       </c>
@@ -27422,7 +27424,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" s="23">
         <v>1</v>
       </c>
@@ -27481,7 +27483,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" s="23"/>
       <c r="B74" s="24"/>
       <c r="C74" s="24"/>
@@ -27556,7 +27558,7 @@
         <v>5.1854497287013483</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" s="25">
         <v>1</v>
       </c>
@@ -27615,7 +27617,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="25">
         <v>1</v>
       </c>
@@ -27674,7 +27676,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" s="25">
         <v>1</v>
       </c>
@@ -27733,7 +27735,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="25">
         <v>1</v>
       </c>
@@ -27792,7 +27794,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" s="23">
         <v>1</v>
       </c>
@@ -27851,7 +27853,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="23"/>
       <c r="B80" s="24"/>
       <c r="C80" s="24"/>
@@ -27926,7 +27928,7 @@
         <v>2.3570226039551585</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" s="25">
         <v>1</v>
       </c>
@@ -27986,7 +27988,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="25">
         <v>1</v>
       </c>
@@ -28046,7 +28048,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="25">
         <v>1</v>
       </c>
@@ -28106,7 +28108,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" s="25">
         <v>1</v>
       </c>
@@ -28166,7 +28168,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" s="23">
         <v>1</v>
       </c>
@@ -28226,7 +28228,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" s="23"/>
       <c r="B86" s="24"/>
       <c r="C86" s="24"/>
@@ -28301,7 +28303,7 @@
         <v>0.47140452079103168</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" s="25">
         <v>1</v>
       </c>
@@ -28360,7 +28362,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" s="25">
         <v>1</v>
       </c>
@@ -28419,7 +28421,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" s="25">
         <v>1</v>
       </c>
@@ -28478,7 +28480,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" s="25">
         <v>1</v>
       </c>
@@ -28537,7 +28539,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" s="23">
         <v>1</v>
       </c>
@@ -28596,7 +28598,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" s="23"/>
       <c r="B92" s="24"/>
       <c r="C92" s="24"/>
@@ -28671,7 +28673,7 @@
         <v>2.6246692913372702</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" s="25">
         <v>1</v>
       </c>
@@ -28730,7 +28732,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" s="25">
         <v>1</v>
       </c>
@@ -28789,7 +28791,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" s="25">
         <v>1</v>
       </c>
@@ -28848,7 +28850,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" s="25">
         <v>1</v>
       </c>
@@ -28907,7 +28909,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="23">
         <v>1</v>
       </c>
@@ -28966,7 +28968,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="23"/>
       <c r="B98" s="24"/>
       <c r="C98" s="24"/>
@@ -29041,7 +29043,7 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" s="25">
         <v>1</v>
       </c>
@@ -29100,7 +29102,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" s="25">
         <v>1</v>
       </c>
@@ -29159,7 +29161,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" s="25">
         <v>1</v>
       </c>
@@ -29218,7 +29220,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" s="25">
         <v>1</v>
       </c>
@@ -29277,7 +29279,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" s="23">
         <v>1</v>
       </c>
@@ -29336,7 +29338,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" s="23"/>
       <c r="B104" s="24"/>
       <c r="C104" s="24"/>
@@ -29411,7 +29413,7 @@
         <v>0.47140452079103168</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" s="25">
         <v>1</v>
       </c>
@@ -29470,7 +29472,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" s="25">
         <v>1</v>
       </c>
@@ -29529,7 +29531,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" s="25">
         <v>1</v>
       </c>
@@ -29588,7 +29590,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" s="25">
         <v>1</v>
       </c>
@@ -29647,7 +29649,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" s="23">
         <v>1</v>
       </c>
@@ -29706,7 +29708,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" s="23"/>
       <c r="B110" s="24"/>
       <c r="C110" s="24"/>
@@ -29781,7 +29783,7 @@
         <v>5.8878405775518976</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" s="25">
         <v>1</v>
       </c>
@@ -29840,7 +29842,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="25">
         <v>1</v>
       </c>
@@ -29899,7 +29901,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" s="25">
         <v>1</v>
       </c>
@@ -29958,7 +29960,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="25">
         <v>1</v>
       </c>
@@ -30017,7 +30019,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" s="23">
         <v>1</v>
       </c>
@@ -30076,12 +30078,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
         <v>135</v>
       </c>
@@ -30101,7 +30103,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>89</v>
       </c>
@@ -30114,7 +30116,7 @@
         <v>6.3333333333333313</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>90</v>
       </c>
@@ -30127,7 +30129,7 @@
         <v>5.1451163468110392</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>91</v>
       </c>
@@ -30140,7 +30142,7 @@
         <v>2.4393887111222412</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>92</v>
       </c>
@@ -30153,17 +30155,17 @@
         <v>2.7438820836342233</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C129" t="s">
         <v>135</v>
       </c>
@@ -30183,7 +30185,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>89</v>
       </c>
@@ -30196,7 +30198,7 @@
         <v>3.1666666666666634</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>90</v>
       </c>
@@ -30209,7 +30211,7 @@
         <v>3.3778280332518729</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>91</v>
       </c>
@@ -30222,7 +30224,7 @@
         <v>1.0886621079036385</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>92</v>
       </c>
@@ -30235,7 +30237,7 @@
         <v>1.2927146286443605</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>93</v>
       </c>
